--- a/WF 2017.xlsx
+++ b/WF 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="45" windowWidth="19110" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="-30" windowWidth="11115" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Checking" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L CHECKING REF #OPE8QWFVNR XXXXXX1140</t>
   </si>
@@ -105,9 +105,6 @@
     <t>AMGEN INC DIRECT DEP 170210 679047333340VH1 KLEINFINGHER L,LIZ Y</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>CHASE CREDIT CRD AUTOPAY 170406 000000000050000 KLEINFINGHER LIZ</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP039WXJ3Y XXXXXX1140</t>
+  </si>
+  <si>
+    <t>BONUS</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,17 +285,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,25 +637,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>42739</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>-82.16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>42739</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>240.03</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -702,14 +717,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>42744</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>-64.709999999999994</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -735,36 +750,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>42748</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>1783.36</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>42752</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>-2161.65</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>42752</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>-117.4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -782,29 +797,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>42762</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>1783.37</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>42765</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="5">
         <v>-120.94</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42766</v>
       </c>
@@ -815,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42766</v>
       </c>
@@ -826,10 +841,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42767</v>
       </c>
@@ -840,7 +855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42772</v>
       </c>
@@ -851,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42772</v>
       </c>
@@ -862,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42772</v>
       </c>
@@ -876,18 +891,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>42773</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>-1709.52</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42773</v>
       </c>
@@ -898,625 +913,433 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>42776</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="5">
         <v>1783.36</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>42780</v>
+      </c>
+      <c r="B29" s="5">
+        <v>-125.35</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>42782</v>
+      </c>
+      <c r="B30" s="7">
+        <v>482.45</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42783</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-913.17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>42783</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-318.44</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42790</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1783.37</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>42793</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-77.48</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>42793</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-129</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>42793</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2750</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>42794</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B39" s="5">
+        <v>-75</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>42800</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-1907.05</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>42800</v>
+      </c>
+      <c r="B41" s="5">
+        <v>-393</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42801</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-166.02</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42804</v>
+      </c>
+      <c r="B43" s="5">
+        <v>-82.75</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42804</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1802.19</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>42807</v>
+      </c>
+      <c r="B45" s="5">
+        <v>-2625.05</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1759</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>42807</v>
+      </c>
+      <c r="B46" s="5">
+        <v>-2281</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1757</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42807</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2781.67</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>42808</v>
+      </c>
+      <c r="B48" s="5">
+        <v>14.31</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>42809</v>
+      </c>
+      <c r="B49" s="5">
+        <v>-130.06</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>42809</v>
+      </c>
+      <c r="B50" s="11">
+        <v>11643.69</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>42811</v>
+      </c>
+      <c r="B51" s="3">
+        <v>-1298.48</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>42818</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1802.19</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>42824</v>
+      </c>
+      <c r="B53" s="5">
+        <v>-76.260000000000005</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>42824</v>
+      </c>
+      <c r="B54" s="5">
+        <v>-223.1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>42828</v>
+      </c>
+      <c r="B57" s="5">
+        <v>-75</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>42828</v>
+      </c>
+      <c r="B58" s="5">
+        <v>-488.97</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>42829</v>
+      </c>
+      <c r="B59" s="9">
+        <v>240.03</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>42830</v>
+      </c>
+      <c r="B60" s="5">
+        <v>-1907.05</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>42830</v>
+      </c>
+      <c r="B61" s="5">
+        <v>-393</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>42832</v>
       </c>
-      <c r="B30">
+      <c r="B62" s="3">
         <v>-18.05</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42832</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-683.76</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>42832</v>
       </c>
-      <c r="B31">
-        <v>-683.76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="B64" s="5">
+        <v>-27.3</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>42832</v>
       </c>
-      <c r="B32">
-        <v>-27.3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B65" s="3">
+        <v>1802.2</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>42832</v>
-      </c>
-      <c r="B33">
-        <v>1802.2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42830</v>
-      </c>
-      <c r="B34">
-        <v>-1907.05</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>42830</v>
-      </c>
-      <c r="B35">
-        <v>-393</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42829</v>
-      </c>
-      <c r="B36">
-        <v>240.03</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>42828</v>
-      </c>
-      <c r="B37">
-        <v>-75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>42828</v>
-      </c>
-      <c r="B38">
-        <v>-488.97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42825</v>
-      </c>
-      <c r="B39">
-        <v>1.98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42824</v>
-      </c>
-      <c r="B40">
-        <v>-76.260000000000005</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>42824</v>
-      </c>
-      <c r="B41">
-        <v>-223.1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42818</v>
-      </c>
-      <c r="B42">
-        <v>1802.19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42811</v>
-      </c>
-      <c r="B43">
-        <v>-1298.48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42809</v>
-      </c>
-      <c r="B44">
-        <v>-130.06</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42809</v>
-      </c>
-      <c r="B45">
-        <v>11643.69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>42808</v>
-      </c>
-      <c r="B46">
-        <v>14.31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>42807</v>
-      </c>
-      <c r="B47">
-        <v>-2625.05</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47">
-        <v>1759</v>
-      </c>
-      <c r="E47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>42807</v>
-      </c>
-      <c r="B48">
-        <v>-2281</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48">
-        <v>1757</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>42807</v>
-      </c>
-      <c r="B49">
-        <v>2781.67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>42804</v>
-      </c>
-      <c r="B50">
-        <v>-82.75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>42804</v>
-      </c>
-      <c r="B51">
-        <v>1802.19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>42801</v>
-      </c>
-      <c r="B52">
-        <v>-166.02</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>42800</v>
-      </c>
-      <c r="B53">
-        <v>-1907.05</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>42800</v>
-      </c>
-      <c r="B54">
-        <v>-393</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B55">
-        <v>-75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>42794</v>
-      </c>
-      <c r="B56">
-        <v>1.54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>42793</v>
-      </c>
-      <c r="B57">
-        <v>-77.48</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>42793</v>
-      </c>
-      <c r="B58">
-        <v>-129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>42793</v>
-      </c>
-      <c r="B59">
-        <v>2750</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>42790</v>
-      </c>
-      <c r="B60">
-        <v>1783.37</v>
-      </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>42783</v>
-      </c>
-      <c r="B61">
-        <v>-913.17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>42783</v>
-      </c>
-      <c r="B62">
-        <v>-318.44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>42782</v>
-      </c>
-      <c r="B63">
-        <v>482.45</v>
-      </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>42780</v>
-      </c>
-      <c r="B64">
-        <v>-125.35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>42776</v>
-      </c>
-      <c r="B65">
-        <v>1783.36</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>42773</v>
-      </c>
-      <c r="B66">
-        <v>-1709.52</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>42773</v>
-      </c>
-      <c r="B67">
-        <v>-49.99</v>
-      </c>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>42772</v>
-      </c>
-      <c r="B68">
-        <v>-1907.05</v>
-      </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>42772</v>
-      </c>
-      <c r="B69">
-        <v>-393</v>
-      </c>
-      <c r="C69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>42772</v>
-      </c>
-      <c r="B70">
-        <v>-1932</v>
-      </c>
-      <c r="C70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70">
-        <v>1756</v>
-      </c>
-      <c r="E70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B71">
-        <v>-75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A30:D71">
+    <sortCondition ref="A30:A71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1347,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>42738</v>
       </c>
@@ -1535,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -1546,10 +1369,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42767</v>
       </c>
@@ -1560,73 +1383,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>42828</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>42825</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>11.04</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>42795</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>42794</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>9.9700000000000006</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>42767</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
     </row>

--- a/WF 2017.xlsx
+++ b/WF 2017.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-30" windowWidth="11115" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Checking" sheetId="1" r:id="rId1"/>
     <sheet name="Savings" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L CHECKING REF #OPE8QWFVNR XXXXXX1140</t>
   </si>
@@ -211,6 +215,81 @@
   </si>
   <si>
     <t>BONUS</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ATM CHECK DEPOSIT ON 04/13 1596 NORTH MOORPARK R THOUSAND OAKS CA 0005367 ATM ID 9842E CARD 9001</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf178477522 Banco Santander MXN 4500 FX Rate: 18.3727 USD Amt: 244.93 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>CHECK # 1761</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS ACH PMT 170417 A2982 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>DEPOSITED OR CASHED CHECK # 1762</t>
+  </si>
+  <si>
+    <t>IRS USATAXPYMT 041817 200750934885928 LIZ Y KLEINFINGHER LEC</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170421 497543290098VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>CHECK # 1760</t>
+  </si>
+  <si>
+    <t>FRANCHISE TAX BD CASTTAXRFD 042017 XXXXX1179 LIZ Y KLEINFINGHER E</t>
+  </si>
+  <si>
+    <t>CONCUR EXPENSE 170427 C0189N11X003 SIP Suppliers F2F Meeting</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf484311897 Banco Santander MXN 7000 FX Rate: 18.6471 USD Amt: 375.39 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf123725754 Soriana- Comercial Mexicana MXN 1500 FX Rate: 18.6092 USD Amt: 80.61 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO KLEINFINGHER L SAVINGS REF #OP03D9T992 XXXXXX2638</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170505 482530425480VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>OAK PARK VILLAGE PAYMENTS 170505 00143-2936 KLEINFINGHER, LIZ Y</t>
+  </si>
+  <si>
+    <t>WF HOME MTG AUTO PAY 050517 0337643209 LIZ Y KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD AUTOPAY 170505 000000000114634 KLEINFINGHER LIZ</t>
+  </si>
+  <si>
+    <t>CITI AUTOPAY PAYMENT 170508 082324191502371 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf466227167 Banco Santander MXN 3300 FX Rate: 18.4169 USD Amt: 179.18 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ATM CHECK DEPOSIT ON 05/17 1596 NORTH MOORPARK R THOUSAND OAKS CA 0000660 ATM ID 9842E CARD 9001</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS ACH PMT 170517 A8902 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170519 694072568468VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170519 694072568469VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP03D9T992 XXXXXX1140</t>
   </si>
 </sst>
 </file>
@@ -309,6 +388,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -356,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,18 +682,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>42738</v>
       </c>
@@ -626,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42738</v>
       </c>
@@ -637,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42739</v>
       </c>
@@ -648,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>42739</v>
       </c>
@@ -659,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42740</v>
       </c>
@@ -670,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42740</v>
       </c>
@@ -681,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>42744</v>
       </c>
@@ -692,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42744</v>
       </c>
@@ -703,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>42744</v>
       </c>
@@ -717,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42744</v>
       </c>
@@ -728,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42745</v>
       </c>
@@ -739,7 +821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42747</v>
       </c>
@@ -750,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42748</v>
       </c>
@@ -761,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42752</v>
       </c>
@@ -772,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42752</v>
       </c>
@@ -783,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42759</v>
       </c>
@@ -797,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42762</v>
       </c>
@@ -808,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42765</v>
       </c>
@@ -819,7 +901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42766</v>
       </c>
@@ -830,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42766</v>
       </c>
@@ -841,10 +923,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42767</v>
       </c>
@@ -855,7 +937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42772</v>
       </c>
@@ -866,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42772</v>
       </c>
@@ -877,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42772</v>
       </c>
@@ -891,7 +973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42773</v>
       </c>
@@ -902,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42773</v>
       </c>
@@ -913,7 +995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42776</v>
       </c>
@@ -924,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42780</v>
       </c>
@@ -935,7 +1017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>42782</v>
       </c>
@@ -946,7 +1028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42783</v>
       </c>
@@ -957,7 +1039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42783</v>
       </c>
@@ -968,7 +1050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42790</v>
       </c>
@@ -979,7 +1061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42793</v>
       </c>
@@ -990,7 +1072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42793</v>
       </c>
@@ -1001,7 +1083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42793</v>
       </c>
@@ -1013,7 +1095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42794</v>
       </c>
@@ -1024,10 +1106,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42795</v>
       </c>
@@ -1038,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42800</v>
       </c>
@@ -1049,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42800</v>
       </c>
@@ -1060,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42801</v>
       </c>
@@ -1071,7 +1153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42804</v>
       </c>
@@ -1082,7 +1164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42804</v>
       </c>
@@ -1093,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42807</v>
       </c>
@@ -1107,7 +1189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42807</v>
       </c>
@@ -1121,7 +1203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42807</v>
       </c>
@@ -1133,7 +1215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42808</v>
       </c>
@@ -1144,7 +1226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>42809</v>
       </c>
@@ -1155,7 +1237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>42809</v>
       </c>
@@ -1169,7 +1251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42811</v>
       </c>
@@ -1180,7 +1262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42818</v>
       </c>
@@ -1191,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42824</v>
       </c>
@@ -1202,7 +1284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>42824</v>
       </c>
@@ -1213,7 +1295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>42825</v>
       </c>
@@ -1224,10 +1306,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>42828</v>
       </c>
@@ -1238,7 +1320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>42828</v>
       </c>
@@ -1249,7 +1331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>42829</v>
       </c>
@@ -1260,7 +1342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>42830</v>
       </c>
@@ -1271,7 +1353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>42830</v>
       </c>
@@ -1282,7 +1364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42832</v>
       </c>
@@ -1293,7 +1375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42832</v>
       </c>
@@ -1304,7 +1386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>42832</v>
       </c>
@@ -1315,7 +1397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42832</v>
       </c>
@@ -1326,9 +1408,285 @@
         <v>32</v>
       </c>
     </row>
+    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>42838</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2825</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>42839</v>
+      </c>
+      <c r="B67" s="5">
+        <v>-244.93</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>42842</v>
+      </c>
+      <c r="B68" s="5">
+        <v>-1786.39</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>42842</v>
+      </c>
+      <c r="B69" s="5">
+        <v>-1490</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1761</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>42843</v>
+      </c>
+      <c r="B70" s="5">
+        <v>-150</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1762</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>42844</v>
+      </c>
+      <c r="B71" s="5">
+        <v>-1090</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>42846</v>
+      </c>
+      <c r="B72" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1760</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>42846</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1805.59</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>42850</v>
+      </c>
+      <c r="B74" s="5">
+        <v>810</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>42853</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>42853</v>
+      </c>
+      <c r="B76" s="5">
+        <v>35.43</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B78" s="5">
+        <v>-75</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B79" s="5">
+        <v>-80.61</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B80" s="5">
+        <v>-375.39</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>42860</v>
+      </c>
+      <c r="B81" s="5">
+        <v>-1907.05</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>42860</v>
+      </c>
+      <c r="B82" s="5">
+        <v>-393</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>42860</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2236.8200000000002</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>42863</v>
+      </c>
+      <c r="B84" s="5">
+        <v>-156.46</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>42864</v>
+      </c>
+      <c r="B85" s="5">
+        <v>-22.4</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>42870</v>
+      </c>
+      <c r="B86" s="5">
+        <v>-179.18</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>42872</v>
+      </c>
+      <c r="B87" s="5">
+        <v>-1508.14</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>42872</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2972.17</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>42874</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2236.81</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>42874</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A30:D71">
-    <sortCondition ref="A30:A71"/>
+  <sortState ref="A67:E99">
+    <sortCondition ref="A67:A99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1336,18 +1694,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>42738</v>
       </c>
@@ -1358,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -1369,10 +1727,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42767</v>
       </c>
@@ -1383,77 +1741,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>42794</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B7" s="5">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11.04</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>42828</v>
-      </c>
-      <c r="B6" s="5">
-        <v>75</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>42825</v>
-      </c>
-      <c r="B7" s="5">
-        <v>11.04</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>42795</v>
-      </c>
-      <c r="B8" s="5">
-        <v>75</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>42794</v>
-      </c>
-      <c r="B9" s="5">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>42767</v>
       </c>
       <c r="B10" s="5">
         <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>42853</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B13" s="5">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E6">
-    <sortCondition ref="A1:A6"/>
+  <sortState ref="A11:F13">
+    <sortCondition ref="A11:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34310F41-858B-43E7-9BFF-D0D95BF659F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WF 2017.xlsx
+++ b/WF 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Checking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L CHECKING REF #OPE8QWFVNR XXXXXX1140</t>
   </si>
@@ -217,9 +217,6 @@
     <t>BONUS</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>ATM CHECK DEPOSIT ON 04/13 1596 NORTH MOORPARK R THOUSAND OAKS CA 0005367 ATM ID 9842E CARD 9001</t>
   </si>
   <si>
@@ -290,6 +287,111 @@
   </si>
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP03D9T992 XXXXXX1140</t>
+  </si>
+  <si>
+    <t>TD AMERITRADE CL SEC TR 170705 999644670002335 LIZ YOLANDA KLEINFINGH</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf312938324 Banco Santander MXN 15000 FX Rate: 17.9875 USD Amt: 833.91 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>CHECK # 1766</t>
+  </si>
+  <si>
+    <t>OAK PARK VILLAGE PAYMENTS 170705 00143-2936 KLEINFINGHER, LIZ Y</t>
+  </si>
+  <si>
+    <t>WF HOME MTG AUTO PAY 070517 0337643209 LIZ Y KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO KLEINFINGHER L SAVINGS REF #OP03K6WBK3 XXXXXX2638</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170630 435042822698VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf442104712 Banco Santander MXN 2500 FX Rate: 17.6219 USD Amt: 141.87 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf583544120 Soriana- Comercial Mexicana MXN 1500 FX Rate: 17.604 USD Amt: 85.21 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf652297481 Banco Santander MXN 1000 FX Rate: 17.501 USD Amt: 57.14 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ATM WITHDRAWAL AUTHORIZED ON 06/26 140 E THOUSAND OAKS THOUSAND OAKS CA 0004633 ATM ID 0899A CARD 9001</t>
+  </si>
+  <si>
+    <t>CHECK # 1765</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf962957199 Soriana- Comercial Mexicana MXN 500 FX Rate: 17.6972 USD Amt: 28.25 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS ACH PMT 170619 A5024 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CONCUR EXPENSE 170615 C019W8VSX004 TransCelerate Leadership Meeting</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170616 723045367171VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf230932135 Banco Santander MXN 7800 FX Rate: 17.7923 USD Amt: 438.39 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ATM WITHDRAWAL AUTHORIZED ON 06/14 1403 SIMI TOWN CENTER SIMI VALLEY CA 0004654 ATM ID 9915O CARD 9001</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf601191059 Banco Santander MXN 2300 FX Rate: 17.8331 USD Amt: 128.97 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>CITI AUTOPAY PAYMENT 170606 082349234234403 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD AUTOPAY 170606 000000000051830 KLEINFINGHER LIZ</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf229105995 Banco Santander MXN 1000 FX Rate: 18.0111 USD Amt: 55.52 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>DEPOSITED OR CASHED CHECK # 1764</t>
+  </si>
+  <si>
+    <t>OAK PARK VILLAGE PAYMENTS 170605 00143-2936 KLEINFINGHER, LIZ Y</t>
+  </si>
+  <si>
+    <t>WF HOME MTG AUTO PAY 060517 0337643209 LIZ Y KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170602 533043447866VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO KLEINFINGHER L SAVINGS REF #OP03GQVY9V XXXXXX2638</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf462281635 Banco Santander MXN 2500 FX Rate: 18.0884 USD Amt: 138.21 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf219888110 Soriana- Comercial Mexicana MXN 1500 FX Rate: 18.07 USD Amt: 83.01 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>CHECK # 1763</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP03K6WBK3 XXXXXX1140</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP03GQVY9V XXXXXX1140</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf648800861 Soriana- Comercial Mexicana MXN 1000 FX Rate: 17.9804 USD Amt: 55.62 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>CITI AUTOPAY PAYMENT 170706 082375154252467 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD AUTOPAY 170706 000000000053019 KLEINFINGHER LIZ</t>
   </si>
 </sst>
 </file>
@@ -682,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1518,7 @@
         <v>2825</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1427,7 +1529,7 @@
         <v>-244.93</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1438,7 +1540,7 @@
         <v>-1786.39</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1452,7 +1554,7 @@
         <v>1761</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1568,7 @@
         <v>1762</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1477,7 +1579,7 @@
         <v>-1090</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1491,7 +1593,7 @@
         <v>1760</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1604,7 @@
         <v>1805.59</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1513,7 +1615,7 @@
         <v>810</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1637,7 @@
         <v>35.43</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,7 +1651,7 @@
         <v>-75</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1662,7 @@
         <v>-80.61</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1571,7 +1673,7 @@
         <v>-375.39</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1582,7 +1684,7 @@
         <v>-1907.05</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1695,7 @@
         <v>-393</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1706,7 @@
         <v>2236.8200000000002</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1717,7 @@
         <v>-156.46</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1626,7 +1728,7 @@
         <v>-22.4</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1637,7 +1739,7 @@
         <v>-179.18</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1648,7 +1750,7 @@
         <v>-1508.14</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1659,7 +1761,7 @@
         <v>2972.17</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1772,7 @@
         <v>2236.81</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1681,12 +1783,419 @@
         <v>1000</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>42877</v>
+      </c>
+      <c r="B91" s="3">
+        <v>-1641</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1763</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B93" s="3">
+        <v>-83.01</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B94" s="3">
+        <v>-138.21</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B96" s="3">
+        <v>-75</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2236.8200000000002</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B98" s="3">
+        <v>-1907.05</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B99" s="3">
+        <v>-393</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B100" s="3">
+        <v>-1575</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1764</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B101" s="3">
+        <v>-55.52</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>42893</v>
+      </c>
+      <c r="B102" s="3">
+        <v>-183.58</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>42893</v>
+      </c>
+      <c r="B103" s="3">
+        <v>-5.6</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B104" s="3">
+        <v>-128.97</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>42900</v>
+      </c>
+      <c r="B105" s="3">
+        <v>-300</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>42900</v>
+      </c>
+      <c r="B106" s="3">
+        <v>-438.39</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3127.03</v>
+      </c>
+      <c r="C107" s="3">
+        <f>B107-B97</f>
+        <v>890.21</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B108" s="3">
+        <v>34.76</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>42905</v>
+      </c>
+      <c r="B109" s="3">
+        <v>-1430.63</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>42907</v>
+      </c>
+      <c r="B110" s="3">
+        <v>-28.25</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>42909</v>
+      </c>
+      <c r="B111" s="3">
+        <v>-300</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1765</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>42912</v>
+      </c>
+      <c r="B112" s="3">
+        <v>-600</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B113" s="3">
+        <v>-57.14</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B115" s="3">
+        <v>-85.21</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B116" s="3">
+        <v>-141.87</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3131.51</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>42919</v>
+      </c>
+      <c r="B119" s="3">
+        <v>-75</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>42921</v>
+      </c>
+      <c r="B120" s="3">
+        <v>-1907.05</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>42921</v>
+      </c>
+      <c r="B121" s="3">
+        <v>-393</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>42921</v>
+      </c>
+      <c r="B122" s="3">
+        <v>-200</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1766</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>42921</v>
+      </c>
+      <c r="B123" s="3">
+        <v>-833.91</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8">
+        <v>42921</v>
+      </c>
+      <c r="B124" s="9">
+        <v>240.03</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>42923</v>
+      </c>
+      <c r="B125" s="3">
+        <v>-82.67</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>42923</v>
+      </c>
+      <c r="B126" s="3">
+        <v>-13.91</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>42923</v>
+      </c>
+      <c r="B127" s="3">
+        <v>-55.62</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A67:E99">
-    <sortCondition ref="A67:A99"/>
+  <sortState ref="A126:G133">
+    <sortCondition ref="A126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1694,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A15:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,7 +2214,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>42738</v>
       </c>
@@ -1716,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -1727,10 +2236,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42767</v>
       </c>
@@ -1741,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42794</v>
       </c>
@@ -1752,10 +2261,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42795</v>
       </c>
@@ -1766,7 +2275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42825</v>
       </c>
@@ -1777,10 +2286,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42828</v>
       </c>
@@ -1791,10 +2300,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42853</v>
       </c>
@@ -1802,31 +2311,76 @@
         <v>10.68</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>42856</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="3">
         <v>75</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>89</v>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11.05</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>42919</v>
+      </c>
+      <c r="B20" s="3">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A11:F13">
-    <sortCondition ref="A11:A13"/>
+  <sortState ref="A15:F19">
+    <sortCondition ref="A15:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1837,7 +2391,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34310F41-858B-43E7-9BFF-D0D95BF659F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6352155-6427-4745-8C3C-A4EF86E009AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/WF 2017.xlsx
+++ b/WF 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
   <si>
     <t>RECURRING TRANSFER FROM KLEINFINGHER L CHECKING REF #OPE8QWFVNR XXXXXX1140</t>
   </si>
@@ -392,6 +392,102 @@
   </si>
   <si>
     <t>CHASE CREDIT CRD AUTOPAY 170706 000000000053019 KLEINFINGHER LIZ</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM KLEINFINGHER L WELLS FARGO PRIME CHECKING REF #OP03MMX6KR XXXXXX1140</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf386952602 Banco Santander MXN 5000 FX Rate: 17.6677 USD Amt: 283.00 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170714 942303672515VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf160808098 Banco Santander MXN 7000 FX Rate: 17.4463 USD Amt: 401.23 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ATM CHECK DEPOSIT ON 07/17 1596 NORTH MOORPARK R THOUSAND OAKS CA 0000268 ATM ID 9842E CARD 9001</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS ACH PMT 170717 A8606 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf189486160 Banco Santander MXN 3000 FX Rate: 17.185 USD Amt: 174.57 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>CHECK # 1767</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf873807465 Banco Santander MXN 1500 FX Rate: 17.1948 USD Amt: 87.24 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf957085873 Banco Santander MXN 500 FX Rate: 17.1751 USD Amt: 29.11 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>CHECK # 1771</t>
+  </si>
+  <si>
+    <t>CHECK # 1768</t>
+  </si>
+  <si>
+    <t>MOBILE DEPOSIT : REF NUMBER :718250737277</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170728 932903770633VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf280766470 Banco Santander MXN 1000 FX Rate: 17.455 USD Amt: 57.29 To: 60577934998 LILIAN PAULINA KLEINFINGHER LECUONA</t>
+  </si>
+  <si>
+    <t>ExpressSend Transaction wf238447900 Soriana- Comercial Mexicana MXN 1500 FX Rate: 17.455 USD Amt: 85.94 To: CASH PICKUP CARLOS ARTURO MORA LECUONA</t>
+  </si>
+  <si>
+    <t>Check # 1770 (Converted ACH) SOCALGAS ARC PYMT 170728 1770 0106108548</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO KLEINFINGHER L SAVINGS REF #OP03MMX6KR XXXXXX2638</t>
+  </si>
+  <si>
+    <t>CHECK # 1772</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD AUTOPAY 170806 000000000053157 KLEINFINGHER LIZ</t>
+  </si>
+  <si>
+    <t>OAK PARK VILLAGE PAYMENTS 170807 00143-2936 KLEINFINGHER, LIZ Y</t>
+  </si>
+  <si>
+    <t>WF HOME MTG AUTO PAY 080517 0337643209 LIZ Y KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CITI AUTOPAY PAYMENT 170807 082402802527302 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>ATM CHECK DEPOSIT ON 08/09 220 N MOORPARK RD THOUSAND OAKS CA 0008026 ATM ID 9849A CARD 9001</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170811 675048651278VH1 KLEINFINGHER L,LIZ Y</t>
+  </si>
+  <si>
+    <t>MOBILE DEPOSIT : REF NUMBER :115130539452</t>
+  </si>
+  <si>
+    <t>WT 1132737053015208 BBVA BANCOMER SA /ORG=1/LILIAN PAULINA KLEINFINGHER LE SRF# 1132737053015208 TRN#170816111390 RFB#</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS ACH PMT 170817 A1730 LIZ KLEINFINGHER</t>
+  </si>
+  <si>
+    <t>CHECK # 1773</t>
+  </si>
+  <si>
+    <t>WT 1132774519010431 BBVA BANCOMER SA /ORG=1/LILIAN PAULINA KLEINFINGHER LE SRF# 1132774519010431 TRN#170818130129 RFB#</t>
+  </si>
+  <si>
+    <t>AMGEN INC DIRECT DEP 170825 611042582835VH1 KLEINFINGHER L,LIZ Y</t>
   </si>
 </sst>
 </file>
@@ -784,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2193,9 +2289,365 @@
         <v>121</v>
       </c>
     </row>
+    <row r="128" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>42927</v>
+      </c>
+      <c r="B128" s="5">
+        <v>-283</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>42930</v>
+      </c>
+      <c r="B129" s="5">
+        <v>-401.23</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>42930</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2236.81</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>42933</v>
+      </c>
+      <c r="B131" s="5">
+        <v>-1984.3</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>42933</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2242.41</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>42934</v>
+      </c>
+      <c r="B133" s="5">
+        <v>-1108</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1767</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>42934</v>
+      </c>
+      <c r="B134" s="5">
+        <v>-174.57</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>42937</v>
+      </c>
+      <c r="B135" s="5">
+        <v>-87.24</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>42940</v>
+      </c>
+      <c r="B136" s="5">
+        <v>-35.44</v>
+      </c>
+      <c r="C136" s="5">
+        <v>1768</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>42940</v>
+      </c>
+      <c r="B137" s="5">
+        <v>-24.92</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1771</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>42940</v>
+      </c>
+      <c r="B138" s="3">
+        <v>-29.11</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>42941</v>
+      </c>
+      <c r="B139" s="5">
+        <v>25.96</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>42944</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2236.8200000000002</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B141" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B142" s="5">
+        <v>-33.130000000000003</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B143" s="5">
+        <v>-85.94</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B144" s="3">
+        <v>-57.29</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>42948</v>
+      </c>
+      <c r="B145" s="5">
+        <v>-75</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>42954</v>
+      </c>
+      <c r="B146" s="5">
+        <v>-1907.05</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>42954</v>
+      </c>
+      <c r="B147" s="5">
+        <v>-393</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B148" s="3">
+        <v>-596.67999999999995</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>42954</v>
+      </c>
+      <c r="B149" s="5">
+        <v>-253.8</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1772</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B150" s="3">
+        <v>-95</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>42956</v>
+      </c>
+      <c r="B151" s="5">
+        <v>3195</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>42958</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2236.8200000000002</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>42961</v>
+      </c>
+      <c r="B153" s="5">
+        <v>241.97</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>42963</v>
+      </c>
+      <c r="B154" s="3">
+        <v>9900</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>42964</v>
+      </c>
+      <c r="B155" s="5">
+        <v>-1575.9</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>42965</v>
+      </c>
+      <c r="B156" s="5">
+        <v>-135.58000000000001</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1773</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>42968</v>
+      </c>
+      <c r="B157" s="3">
+        <v>3884.02</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>42972</v>
+      </c>
+      <c r="B158" s="5">
+        <v>2236.8200000000002</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A126:G133">
-    <sortCondition ref="A126"/>
+  <sortState ref="A129:E168">
+    <sortCondition ref="A129:A168"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2203,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A15:XFD20"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,7 +2791,7 @@
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42887</v>
       </c>
@@ -2350,7 +2802,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42916</v>
       </c>
@@ -2361,10 +2813,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42919</v>
       </c>
@@ -2373,6 +2825,34 @@
       </c>
       <c r="C20" s="3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B21" s="5">
+        <v>11.05</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>42948</v>
+      </c>
+      <c r="B23" s="5">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2871,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6352155-6427-4745-8C3C-A4EF86E009AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6985BC2C-B6C5-4AD9-A7EF-903A67E6AA3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
